--- a/example/mp3_app/xls/E_MP3_0.xlsx
+++ b/example/mp3_app/xls/E_MP3_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarolinaSedlackova\waw_t2c\example\mp3_app\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karolina\watson-assistant-workbench\example\mp3_app\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAA18C8-4DBB-49A0-979D-DFA437581799}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{989E0958-ED29-4C0E-8186-AA92BFD4DC6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11670" xr2:uid="{355F90E0-CA55-4E54-A039-E09B9EABB366}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>Vygenerované mp3 se následně ukládají do složky generated_mp3</t>
   </si>
   <si>
-    <t>V případě, že je více možných reakcí, se názvy uloží za sebe.</t>
-  </si>
-  <si>
     <t>Názvy mp3 se pak ukládají spolu s činností do textového souboru.</t>
   </si>
   <si>
-    <t>Názvy mp3 souborů jsou pojmenované čísleně ve formátu 00X.</t>
+    <t>//V případě, že je více možných reakcí, se názvy uloží za sebe.</t>
+  </si>
+  <si>
+    <t>//Názvy mp3 souborů jsou pojmenované čísleně ve formátu 00X.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52629F32-2B48-4C6C-A705-AE46732F66E2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,12 +486,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="25" x14ac:dyDescent="0.35">
@@ -499,8 +499,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/mp3_app/xls/E_MP3_0.xlsx
+++ b/example/mp3_app/xls/E_MP3_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karolina\watson-assistant-workbench\example\mp3_app\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{989E0958-ED29-4C0E-8186-AA92BFD4DC6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{475A02A1-7512-4888-A170-BA1EC907624F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11670" xr2:uid="{355F90E0-CA55-4E54-A039-E09B9EABB366}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>Názvy mp3 se pak ukládají spolu s činností do textového souboru.</t>
   </si>
   <si>
-    <t>//V případě, že je více možných reakcí, se názvy uloží za sebe.</t>
-  </si>
-  <si>
-    <t>//Názvy mp3 souborů jsou pojmenované čísleně ve formátu 00X.</t>
+    <t>V případě, že je více možných reakcí, se názvy uloží za sebe.</t>
+  </si>
+  <si>
+    <t>Názvy mp3 souborů jsou pojmenované čísleně ve formátu 00X.</t>
   </si>
 </sst>
 </file>
